--- a/biology/Zoologie/Cobitis_bilineata/Cobitis_bilineata.xlsx
+++ b/biology/Zoologie/Cobitis_bilineata/Cobitis_bilineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cobitis bilineata, la loche italienne, est une espèce de poissons à nageoires rayonnées de la famille des Cobitidae, rencontrée en Croatie, Italie, Slovénie et Suisse. 
-Ses habitats naturels sont les rivières intermittentes et les marais d'eau douce. Elle n'est pas considérée comme menacée par l'UICN[1].
+Ses habitats naturels sont les rivières intermittentes et les marais d'eau douce. Elle n'est pas considérée comme menacée par l'UICN.
 Sur les autres projets Wikimedia :
 Cobitis bilineata, sur Wikimedia CommonsLe genre Cobitis, sur Wikispecies
 </t>
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence BioLib : Cobitis bilineata Canestrini, 1866
 </t>
